--- a/proj1/sample_output/marksheet/1401CB02.xlsx
+++ b/proj1/sample_output/marksheet/1401CB02.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P C S Aswin Kumar\Documents\GitHub\1901MM25_2021\proj1\sample_output\marksheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF493683-28C2-4D13-8B44-3FFF768226C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quiz" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -82,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,11 +178,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -198,12 +201,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -224,7 +244,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="iitp_heading.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="iitp_heading.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -293,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,9 +351,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,6 +403,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -534,322 +596,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" ht="22.2" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>17</v>
       </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
         <v>8</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>-1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>85</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>-3</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="E18" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="5" t="s">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="5" t="s">
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8" t="s">
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7" t="s">
         <v>3</v>
       </c>
     </row>

--- a/proj1/sample_output/marksheet/1401CB02.xlsx
+++ b/proj1/sample_output/marksheet/1401CB02.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P C S Aswin Kumar\Documents\GitHub\1901MM25_2021\proj1\sample_output\marksheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF493683-28C2-4D13-8B44-3FFF768226C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="quiz" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -88,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +172,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -201,29 +198,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -244,13 +224,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="iitp_heading.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="iitp_heading.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -319,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,27 +325,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,24 +359,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,325 +534,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A5:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="17.6640625" customWidth="1"/>
+    <col min="1" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>17</v>
       </c>
-      <c r="C10" s="5">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
         <v>8</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>28</v>
       </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6">
         <v>-1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>85</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>-3</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
+      <c r="E18" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8" t="s">
         <v>3</v>
       </c>
     </row>
